--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,43 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2573" yWindow="2573" windowWidth="16199" windowHeight="9847" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,26 +49,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +420,4041 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="12.796875" customWidth="1" min="5" max="5"/>
+    <col width="13.1328125" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Smooth data</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Prediction data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.009999833344166665</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0001999966668833335</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.009999833344166665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01999866701333308</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005959700738123288</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01999966668833332</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02999550263249566</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001183960724985996</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02999550263249566</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03998934442663416</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00196006839901896</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0399923382516582</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04997920052067833</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002920451041452148</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04997920052067833</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0599640842394446</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.004061323705411998</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05996905661472261</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.06994301540753277</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.005378957539454415</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06994301540753277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07991502164917269</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.006869678821648782</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07992194657562246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.08987913968801103</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.008529868038976028</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.08987913968801103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.09983441664682813</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01035595901113307</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.09984325772684834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1097799113471747</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01234443805785391</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1097799113471747</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1197146956089191</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01449184320887521</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1197254060475174</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.129637855549694</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01679476345569159</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.129637855549694</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1395484928842339</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01924983804426244</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1395610154904716</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1494457262235919</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02185375580784903</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1494457262235919</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1593286923742268</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02460325453917659</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1593429595629565</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1691965476369483</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02749512040113202</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1691965476369483</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1790484691057118</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03052618737522362</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1790644028996671</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1888836559662476</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0336933367470441</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1888836559662476</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1987013307945151</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.03699349662799353</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.198718842826783</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2085007408549642</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.04042364151253294</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2085007408549642</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2182811593985881</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.04398079187025405</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2183001509153501</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2280418869607445</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04766201377206386</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2280418869607445</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2377822526587204</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.051464418549797</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2378026145229284</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.247501615489001</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05538516248858108</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.247501615489001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2571993656242009</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05942144655129348</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2572209783193062</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2668749257095926</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.06357051613445946</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2668749257095926</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2765277521591529</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.06782966085495334</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2765504857949513</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2861573364510159</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.07219621436687461</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2861573364510159</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2957632064221913</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.07666755420798094</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.295786920742874</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3053449275623561</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.08124110167506844</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.3053449275623561</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3149021043064694</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.08591432172769647</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3149266487025615</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.3244343813258868</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.09068472291966029</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3244343813258868</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3339414448175515</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.09554985735761812</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3339666583453565</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3434230237907202</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1005073206862802</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.3434230237907202</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3528788913505315</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1055547520995652</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3529046027640581</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3623088659775377</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1106898343771247</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3623088659775377</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3717128128020893</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.115910293945624</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3717388406043151</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3810906448721845</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1212139009641552</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3810906448721845</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3904423244130474</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.126598469433133</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3904684769424808</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3997678640762918</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1320618573259962</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3997678640762918</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4090673281760192</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1376019667429967</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4090934037396174</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4183408339086104</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.143216744086309</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4183408339086104</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4275885525522486</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1489041802556278</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.4276143396415868</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4368107106413682</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1546623108633426</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4368107106413682</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4460075911102186</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1604892164682801</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4460328687304226</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4551795343985502</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1663830228268855</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.4551795343985502</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4643269395110428</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1723419011605686</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4643514776866424</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4734502650204737</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1783640684377667</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.4734502650204737</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4825500300027358</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1844477876690661</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.4825735905301423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4916268148896154</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1905913682134771</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.4916268148896154</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5006812622227059</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1967931660936617</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.5007035997760181</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5097140772889011</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2030515843175665</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.5097140772889011</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5187260286145423</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.209365073203506</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.5187468923548739</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5277179482914368</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2157321307052646</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5277179482914368</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.536690732103543</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2221513027332302</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.5367098679678036</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5456453394181032</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2286211834669277</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.5456453394181032</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5545827927992778</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2351404156535747</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.5545999467329287</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5635041772958774</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2417076908864207</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.5635041772958774</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5724106393474756</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2483217498556418</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5724255617917559</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5813033852449617</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2549813825634283</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.5813033852449617</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5901836790723602</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2616854284936069</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5901961311410853</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5990528400464096</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.268432776724663</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.5990528400464096</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6079122391588707</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2752223659733471</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6079220010189458</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6167632950137248</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2820531845541547</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6167632950137248</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6256074687372334</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2889242702378163</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.6256143508687468</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6344462578231699</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.2958347099895234</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.6344462578231699</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6432811887583266</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3027836395648995</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6432850469083058</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6521138082545581</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.3097702429386927</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.6521138082545581</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.660945672893111</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3167937515377811</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.6609464277529854</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6697783369647506</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.3238534432463205</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.6697783369647506</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6786133382652461</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.330948641146699</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.6786110010383342</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6874521815801362</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.3380787119553677</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.6874521815801362</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6962963195654688</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3452430641075698</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.696291024894611</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7051471307025304</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.352441145439469</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.7051471307025304</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7140058939747013</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3596724404101736</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7139979418407892</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7228737598838261</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.3669364667996466</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.7228737598838261</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.731751717392338</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.3742327718115005</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.7317416257914957</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7406405563464449</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3815609275021994</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.7406405563464449</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7495408249057806</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.388920525450271</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7495293953019518</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7584527814770801</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.3963111705708072</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7584527814770801</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7673763406249473</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.40373247397189</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.767364738046351</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7763110124132768</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.4111840447407178</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.7763110124132768</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7852558346183451</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4186654805382704</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7852456842017228</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7942092972514373</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.4261763568725337</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.7942092972514373</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8031692588380379</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.4337162149118438</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.8031627598848862</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8121328539256025</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4412845476921189</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.8121328539256025</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8210963913368762</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4488807845650141</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.8210964490083839</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8300552427555365</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4565042737288245</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.8300552427555365</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8390037213312949</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.464154262680874</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.839014094171583</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8479349501290683</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.4718298764298379</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.8479349501290683</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.856840720428975</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.4795300933098206</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.8568661789243808</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8657113401192186</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.4872537182460085</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.8657113401192186</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.874535472721959</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.4949993533355276</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.8745819598054728</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8832999679635587</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5027653656280882</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.8832999679635587</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8919896852565962</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5105498520206583</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.8920644632085435</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.900587312013974</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.5183506012205246</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.900587312013974</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9090731793780722</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5261650527836755</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9091849387717522</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9174250787330638</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5339902533026633</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9174250787330638</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9256180832886867</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5418228099023837</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9257769780913155</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9336243800902329</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5496588413061406</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9336243800902329</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9414131190313733</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5574939268606454</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9416306768879117</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9489502868292848</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5653230540600181</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9489502868292848</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.956198615465796</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5731405652881337</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9564874546240711</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9631175362970533</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.5809401047083121</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9631175362970533</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9696631928707879</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5887145664715617</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.970036457124049</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9757885274348899</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5964560456908283</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9757885274348899</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9814434581272762</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.6041557939395573</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9819138620019475</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9865751658376345</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6118041813775188</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9865751658376345</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9911285116334337</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6193906679826371</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9917068735444425</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9950466073215327</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6269037867694149</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9950466073215327</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9982715630120579</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6343311422942678</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9989647030145763</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.000745436260089</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6416594281735842</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.000745436260089</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.002411407232757</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6488744677547676</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.003219309506413</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.003215203082751</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6559612824613273</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.003215203082751</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.003106791948025</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.6629041926510614</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.004018998934733</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.002042362332355</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6696869560446873</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.002042362332355</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.999986596594354</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.6762929488556806</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.000977932708682</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9969152373879584</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.6827053946263261</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9969152373879584</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.992817932640937</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.6889076453866183</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.9938438781734089</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9877013275265653</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6948835190294171</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.9877013275265653</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9815923504279462</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.7006176956573877</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9825847224129853</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9745416137785717</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.7060961740198114</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9745416137785717</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.966626819741372</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.7113067869342427</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9674908771288596</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9579560251060782</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.7162397716976793</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9579560251060782</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9486705800958501</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7208883878656427</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9492852304711126</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9389475130854458</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.7252495703700388</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9389475130854458</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9290010893628106</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.7293246007498942</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9292244460780463</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.919083229712596</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.7331197733291483</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.919083229712596</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9094824375091336</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.7366470266127481</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9091653700638347</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9005208561120407</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.739924503202734</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9005208561120407</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.8925490678727274</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7429769944961339</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.8915592747102081</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.885938259473825</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7458362197956876</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.885938259473825</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.8810694242580759</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7485408838849353</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.8793274510726096</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.8783193600682597</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.7511364534086018</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.8783193600682597</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.8780433604980807</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.7536745915503914</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.8755692958803059</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.880554697147049</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.7562121936623246</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.880554697147049</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.8861012571421731</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.7588099749319216</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.8830660337931137</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8948400365533833</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.7615305761643508</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.8948400365533833</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9068105929074639</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.764436176499213</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9035788159647263</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9219090164797523</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.7675856332988239</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.9219090164797523</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9398644664010095</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.7710312099608676</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.9370074400512434</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9602207953677268</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.7748150016690047</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.9602207953677268</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9823262006807234</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.7789652256492391</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.980577124344238</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.005334116503778</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.7834926034663299</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.005334116503778</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.028218612962412</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.7883871236562515</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.028342032335744</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.049807289743199</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.7936155269779904</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.049807289743199</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.068833938717575</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.7991198952127821</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.071395966525217</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.08401200465222</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.8048177374015709</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.08401200465222</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.094128026966011</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.8106039431928598</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.099190070579371</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.09815178464245</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.8163549000218516</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.09815178464245</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.095356860918596</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.8219349392397864</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.102175542325544</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.085441980284494</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.8272050800606806</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.085441980284494</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.068640077809683</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.8320337800156606</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.075527099674489</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.045799131134781</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.8363090870380431</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.045799131134781</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.018416966507916</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.8399512446274405</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.022958184455142</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.988612308614444</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.8429244659071806</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.988612308614444</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9590170817786484</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.84524631822461</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.9588076507305106</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9325810877017355</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.8469930136141525</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.9325810877017355</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9122900877234308</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.848298955096338</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.9061450936147351</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9008118792579485</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.8493492135795703</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.9008118792579485</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9001012673879784</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.8503642546557385</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.8893336708020847</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9110119905586809</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.8515772093737973</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.9110119905586809</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.93297867359877</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.8532052386582968</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.9219227137335156</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9638407950302372</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.8554179497857355</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.9638407950302372</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9998789787889472</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.8583071703657997</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.9947029164594507</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.036117448376103</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.8618633759260058</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.036117448376103</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.066912502762597</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.8659643584627376</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.072355917961344</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.08679565525875</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8703809843986577</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.08679565525875</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.091476352894204</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.8748028917685686</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.106678807762562</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.078843200123341</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.8788836979356641</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.078843200123341</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.049750059287932</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.8823010251627095</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.066210047361075</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.008353751599137</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.884822079691438</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.008353751599137</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9618026408242334</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.8863616909140939</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.9669574439226158</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9191732217532577</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.8870179215308772</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.9191732217532577</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.8897143729454107</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.8870718505591678</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.8765438026895458</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8806650176195716</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.886943713900376</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.8806650176195716</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.8951153731330721</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.8871071470850298</v>
+      </c>
+      <c r="H180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.8716156622879123</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9305189234857922</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.887975382613045</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.9305189234857922</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9784584034686714</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.8897850430301576</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.9659224738403642</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.0260671486935</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.8925106851434245</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.0260671486935</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.059096187995118</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.8958423952004583</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.073675893936914</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.066060931082675</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.8992467659181026</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.066060931082675</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.042349232240256</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.9021088152445457</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.073025674156823</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9928421401288688</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.9039234817422321</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.9928421401288688</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.931713410900525</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.904479280325398</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.943335048028711</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8787665265019956</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.90396502524893</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.8787665265019956</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.85287262234493</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.9029431771908499</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.8258196421032533</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.8644567630954324</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.9021734489089416</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.8644567630954324</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9099753281822608</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.9023294864944079</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.8760409038258592</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.9713034749294249</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.9037089662631083</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.9713034749294249</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.021517866860383</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.9060651442750537</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1.032631621675659</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.035896077496353</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.9086617629394798</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.035896077496353</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.003990523440276</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.9105683381494957</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1.050274288126806</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.9368785847019462</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.9110945430805446</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.9368785847019462</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.8646028329224418</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.9101647088773825</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.8697666459253703</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8228842921390549</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.908419100542616</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.8228842921390549</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.8341525145205999</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.9069337688221757</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.7811657513569106</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.8927663031687121</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.9066504195091064</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.8927663031687121</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>